--- a/week01/five-01.xlsx
+++ b/week01/five-01.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21160" windowHeight="13460"/>
+    <workbookView windowWidth="21160" windowHeight="13460" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="week01" sheetId="1" r:id="rId1"/>
+    <sheet name="week02" sheetId="5" r:id="rId2"/>
+    <sheet name="week03" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>题号</t>
   </si>
@@ -185,6 +188,195 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>第2周</t>
+  </si>
+  <si>
+    <t>第5课：哈希表、映射、集合</t>
+  </si>
+  <si>
+    <t>第6课：树、二叉树、二叉搜索树</t>
+  </si>
+  <si>
+    <t>第6课：堆和二叉堆、图</t>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>字母异位词分组</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum/description/</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>N叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>N叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>N叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>剑指 Offer 40</t>
+  </si>
+  <si>
+    <t>最小的k个数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/</t>
+  </si>
+  <si>
+    <t>剑指 Offer 49</t>
+  </si>
+  <si>
+    <t>丑数​</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/chou-shu-lcof/</t>
+  </si>
+  <si>
+    <t>前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>第3周</t>
+  </si>
+  <si>
+    <t>第7课：泛型递归、树的递归</t>
+  </si>
+  <si>
+    <t>第8课：分治、回溯</t>
+  </si>
+  <si>
+    <t>括号生成</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/generate-parentheses/#/description</t>
+  </si>
+  <si>
+    <t>翻转二叉树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的序列化与反序列化</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/powx-n/</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>多数元素</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/majority-element/description/</t>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>N皇后</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>全排列 II </t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations-ii/</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -192,12 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,16 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,23 +450,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,19 +480,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,14 +504,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -341,9 +511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,17 +535,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,8 +571,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,61 +614,211 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA3E043"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFD900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA3E043"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFE2C23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1C7231"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,152 +828,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -709,11 +915,29 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,41 +966,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,157 +1000,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,16 +1220,103 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1341,8 +1652,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1355,522 +1666,526 @@
     <row r="1" customHeight="1"/>
     <row r="2" customHeight="1"/>
     <row r="3" ht="41" customHeight="1" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="19"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="20"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="82" spans="1:9">
-      <c r="A8" s="9">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" ht="41" spans="1:9">
+      <c r="A8" s="38">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16">
+      <c r="D8" s="40"/>
+      <c r="E8" s="45">
         <v>44285</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" ht="68" spans="1:9">
-      <c r="A9" s="12">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" ht="28" spans="1:9">
+      <c r="A9" s="41">
         <v>283</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17">
+      <c r="D9" s="40"/>
+      <c r="E9" s="46">
         <v>44285</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" ht="55" spans="1:9">
-      <c r="A10" s="12">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" ht="28" spans="1:9">
+      <c r="A10" s="41">
         <v>70</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="18">
+      <c r="D10" s="40"/>
+      <c r="E10" s="47">
         <v>44285</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" ht="82" spans="1:9">
-      <c r="A11" s="9">
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" ht="28" spans="1:9">
+      <c r="A11" s="38">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="18">
+      <c r="D11" s="40"/>
+      <c r="E11" s="47">
         <v>44285</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" ht="68" spans="1:9">
-      <c r="A12" s="12">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" ht="28" spans="1:9">
+      <c r="A12" s="41">
         <v>206</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="18">
+      <c r="D12" s="40"/>
+      <c r="E12" s="47">
         <v>44285</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" ht="82" spans="1:9">
-      <c r="A13" s="9">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" ht="41" spans="1:9">
+      <c r="A13" s="38">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="18">
+      <c r="D13" s="40"/>
+      <c r="E13" s="47">
         <v>44285</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="47">
         <v>44286</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" ht="55" spans="1:9">
-      <c r="A14" s="12">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" ht="28" spans="1:9">
+      <c r="A14" s="41">
         <v>141</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="18">
+      <c r="D14" s="40"/>
+      <c r="E14" s="47">
         <v>44285</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" ht="82" spans="1:9">
-      <c r="A15" s="9">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" ht="28" spans="1:9">
+      <c r="A15" s="38">
         <v>142</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" ht="68" spans="1:9">
-      <c r="A16" s="13">
+      <c r="D15" s="40"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" ht="28" spans="1:9">
+      <c r="A16" s="42">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="18">
+      <c r="D16" s="40"/>
+      <c r="E16" s="47">
         <v>44285</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="47">
         <v>44286</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" ht="96" spans="1:9">
-      <c r="A17" s="12">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" ht="28" spans="1:9">
+      <c r="A17" s="41">
         <v>20</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" ht="68" spans="1:9">
-      <c r="A18" s="12">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" ht="28" spans="1:9">
+      <c r="A18" s="41">
         <v>155</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" ht="82" spans="1:9">
-      <c r="A19" s="13">
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" ht="41" spans="1:9">
+      <c r="A19" s="42">
         <v>84</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" ht="82" spans="1:9">
-      <c r="A20" s="13">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" ht="41" spans="1:9">
+      <c r="A20" s="42">
         <v>239</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" ht="109" spans="1:9">
-      <c r="A25" s="12">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" ht="41" spans="1:9">
+      <c r="A25" s="41">
         <v>26</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" ht="68" spans="1:9">
-      <c r="A26" s="12">
+      <c r="D25" s="40"/>
+      <c r="E25" s="46">
+        <v>44287</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" ht="28" spans="1:9">
+      <c r="A26" s="41">
         <v>189</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" ht="82" spans="1:9">
-      <c r="A27" s="12">
+      <c r="D26" s="40"/>
+      <c r="E26" s="47">
+        <v>44286</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" ht="41" spans="1:9">
+      <c r="A27" s="41">
         <v>21</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="47">
         <v>44286</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" ht="82" spans="1:9">
-      <c r="A28" s="12">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" ht="28" spans="1:9">
+      <c r="A28" s="41">
         <v>88</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="47">
         <v>44286</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" ht="68" spans="1:9">
-      <c r="A29" s="12">
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" ht="28" spans="1:9">
+      <c r="A29" s="41">
         <v>1</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="47">
         <v>44285</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" ht="68" spans="1:9">
-      <c r="A30" s="12">
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" ht="28" spans="1:9">
+      <c r="A30" s="41">
         <v>66</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="47">
         <v>44286</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" ht="68" spans="1:9">
-      <c r="A31" s="9">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" ht="28" spans="1:9">
+      <c r="A31" s="38">
         <v>641</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" ht="68" spans="1:9">
-      <c r="A32" s="13">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" ht="28" spans="1:9">
+      <c r="A32" s="42">
         <v>42</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1909,4 +2224,945 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="10.9285714285714" customWidth="1"/>
+    <col min="2" max="2" width="8.92857142857143" customWidth="1"/>
+    <col min="4" max="4" width="8.39285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="41" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" ht="68" spans="1:9">
+      <c r="A7" s="9">
+        <v>242</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="82" spans="1:9">
+      <c r="A8" s="12">
+        <v>49</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="82" spans="1:9">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="96" spans="1:9">
+      <c r="A10" s="12">
+        <v>94</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="96" spans="1:9">
+      <c r="A11" s="12">
+        <v>144</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" ht="96" spans="1:9">
+      <c r="A12" s="9">
+        <v>590</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" ht="96" spans="1:9">
+      <c r="A13" s="9">
+        <v>589</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" ht="96" spans="1:9">
+      <c r="A14" s="12">
+        <v>429</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" ht="28" spans="1:9">
+      <c r="A15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" ht="82" spans="1:9">
+      <c r="A16" s="17">
+        <v>239</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="27"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="27"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" ht="68" spans="1:9">
+      <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" ht="82" spans="1:9">
+      <c r="A22" s="12">
+        <v>347</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B5:I6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://leetcode-cn.com/problems/valid-anagram/" tooltip="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="C8" r:id="rId2" display="https://leetcode-cn.com/problems/group-anagrams/" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="C9" r:id="rId3" display="https://leetcode-cn.com/problems/two-sum/description/" tooltip="https://leetcode-cn.com/problems/two-sum/description/"/>
+    <hyperlink ref="C10" r:id="rId4" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="C11" r:id="rId5" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="C12" r:id="rId6" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/"/>
+    <hyperlink ref="C13" r:id="rId7" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
+    <hyperlink ref="C14" r:id="rId8" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/"/>
+    <hyperlink ref="C15" r:id="rId9" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/" tooltip="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/"/>
+    <hyperlink ref="C16" r:id="rId10" display="https://leetcode-cn.com/problems/sliding-window-maximum" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum"/>
+    <hyperlink ref="C21" r:id="rId11" display="https://leetcode-cn.com/problems/chou-shu-lcof/" tooltip="https://leetcode-cn.com/problems/chou-shu-lcof/"/>
+    <hyperlink ref="C22" r:id="rId12" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" tooltip="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="2" max="2" width="27.5267857142857" customWidth="1"/>
+    <col min="3" max="3" width="50.7321428571429" customWidth="1"/>
+    <col min="5" max="5" width="10.7857142857143"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="41" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="55" spans="1:9">
+      <c r="A6" s="9">
+        <v>70</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="109" spans="1:9">
+      <c r="A7" s="12">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9">
+        <v>226</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="12">
+        <v>98</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
+        <v>104</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9">
+        <v>111</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15">
+        <v>297</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12">
+        <v>50</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="12">
+        <v>78</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9">
+        <v>169</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19">
+        <v>44301</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" ht="123" spans="1:9">
+      <c r="A16" s="12">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="19">
+        <v>44299</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" ht="68" spans="1:9">
+      <c r="A17" s="17">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="12">
+        <v>236</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="20">
+        <v>44301</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="12">
+        <v>105</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="20">
+        <v>44301</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12">
+        <v>77</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="20">
+        <v>44298</v>
+      </c>
+      <c r="F24" s="20">
+        <v>44300</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12">
+        <v>46</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="20">
+        <v>44300</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="20">
+        <v>44301</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="https://leetcode.com/problems/climbing-stairs/" tooltip="https://leetcode.com/problems/climbing-stairs/"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://leetcode-cn.com/problems/generate-parentheses/#/description"/>
+    <hyperlink ref="C8" r:id="rId3" display="https://leetcode-cn.com/problems/invert-binary-tree/description/" tooltip="https://leetcode-cn.com/problems/invert-binary-tree/description/"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://leetcode-cn.com/problems/validate-binary-search-tree/" tooltip="https://leetcode-cn.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="C11" r:id="rId6" display="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/" tooltip="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/"/>
+    <hyperlink ref="C12" r:id="rId7" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" tooltip="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/"/>
+    <hyperlink ref="C13" r:id="rId8" display="https://leetcode-cn.com/problems/powx-n/" tooltip="https://leetcode-cn.com/problems/powx-n/"/>
+    <hyperlink ref="C14" r:id="rId9" display="https://leetcode-cn.com/problems/subsets/" tooltip="https://leetcode-cn.com/problems/subsets/"/>
+    <hyperlink ref="C15" r:id="rId10" display="https://leetcode-cn.com/problems/majority-element/description/" tooltip="https://leetcode-cn.com/problems/majority-element/description/"/>
+    <hyperlink ref="C16" r:id="rId11" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C17" r:id="rId12" display="https://leetcode-cn.com/problems/n-queens/" tooltip="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="C22" r:id="rId13" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="C23" r:id="rId14" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" tooltip="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
+    <hyperlink ref="C24" r:id="rId15" display="https://leetcode-cn.com/problems/combinations/" tooltip="https://leetcode-cn.com/problems/combinations/"/>
+    <hyperlink ref="C25" r:id="rId16" display="https://leetcode-cn.com/problems/permutations/" tooltip="https://leetcode-cn.com/problems/permutations/"/>
+    <hyperlink ref="C26" r:id="rId17" display="https://leetcode-cn.com/problems/permutations-ii/" tooltip="https://leetcode-cn.com/problems/permutations-ii/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="E7:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="7" spans="5:7">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>